--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\data-driven cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A602375-2F56-4C8D-84F5-E2E49B1036FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C588567-0341-474D-81D4-C5918D2F05CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>what</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>The dirty truth: scientific colonialism in palaeontology</t>
+  </si>
+  <si>
+    <t>Illicit fossils: the ethical dilemma in protecting the world's natural history</t>
+  </si>
+  <si>
+    <t>Mar. 2020</t>
+  </si>
+  <si>
+    <t>Royal Tyrrell Museum</t>
+  </si>
+  <si>
+    <t>Invited guest talk for the Royal Tyrrell Museum Speaker Series</t>
   </si>
 </sst>
 </file>
@@ -923,7 +935,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +975,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
